--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04594325013907478</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.91959097019429</v>
+        <v>-1.921701729835954</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05071107518066514</v>
+        <v>0.04717425421510249</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01723641052796341</v>
+        <v>0.0135484837267559</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04117203183256312</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.779252212348682</v>
+        <v>-1.784289860546405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001239654198184517</v>
+        <v>-0.002191707486250982</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01916300993243545</v>
+        <v>0.01563405906247931</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04065593790450077</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.747261060717806</v>
+        <v>-1.754118275019752</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04452652577275428</v>
+        <v>-0.04711421320817261</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01536962385010079</v>
+        <v>0.01161244020755605</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04708118924484964</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.770085124986226</v>
+        <v>-1.777536531506464</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0811696909166343</v>
+        <v>-0.08339692797327476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04018088725916354</v>
+        <v>0.03582400233140323</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05726003651717344</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.737868101611444</v>
+        <v>-1.744279868502062</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1419142368458704</v>
+        <v>-0.1433009476917363</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04778812167240976</v>
+        <v>0.04254663799847846</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.063962311829332</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.594160155836691</v>
+        <v>-1.601448651377874</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2017584438377226</v>
+        <v>-0.2002835879210638</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04220035379179232</v>
+        <v>0.03766560470332504</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.0592713895965058</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.455371019816003</v>
+        <v>-1.461270443482638</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3012946910114142</v>
+        <v>-0.2968638271849527</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07003530793287367</v>
+        <v>0.06486622913852222</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03732658438832132</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.235552166440316</v>
+        <v>-1.241027391953761</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.39246187851715</v>
+        <v>-0.3844438251132443</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0952825746385367</v>
+        <v>0.08987739297599015</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.006352762006734332</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9437471225710635</v>
+        <v>-0.9455407173597857</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4397517089975079</v>
+        <v>-0.4290326387814502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1376252630206465</v>
+        <v>0.1316361202640974</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07443058186128444</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7470474620490412</v>
+        <v>-0.7455379777117138</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5481276475564242</v>
+        <v>-0.5344037748378034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1368539936512092</v>
+        <v>0.1307814278812311</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1644728170481383</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5268799634379862</v>
+        <v>-0.5216463498596614</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.675760136045333</v>
+        <v>-0.6589795181931464</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1495909563807744</v>
+        <v>0.1436285719492873</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2705539616729452</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2830360692043262</v>
+        <v>-0.2752793029745564</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8111084662668578</v>
+        <v>-0.794515156690106</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2130632774472246</v>
+        <v>0.207448751241545</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3892628917882733</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0603501399991901</v>
+        <v>-0.05056918517942762</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.927618935644656</v>
+        <v>-0.9106305472684577</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2775917653440676</v>
+        <v>0.2717285441172225</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5202364373188331</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2890191441647106</v>
+        <v>0.2992282321854668</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.066048408296127</v>
+        <v>-1.05029562493015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3109845810024617</v>
+        <v>0.3062184511031632</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.661015150280205</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5540147073504091</v>
+        <v>0.5653177386604694</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.207100983813246</v>
+        <v>-1.193953202093021</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3325234586583403</v>
+        <v>0.3295438404617181</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.800348715978385</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8043278201726149</v>
+        <v>0.8168192359192572</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.336959922349234</v>
+        <v>-1.32554356166244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3602592495947797</v>
+        <v>0.358606529517414</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9229026525687903</v>
       </c>
       <c r="E18" t="n">
-        <v>1.042149517248179</v>
+        <v>1.05569237776785</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.534311226787475</v>
+        <v>-1.523890433194904</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4089027365194561</v>
+        <v>0.4078402736125782</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.02488364553269</v>
       </c>
       <c r="E19" t="n">
-        <v>1.316253929088844</v>
+        <v>1.328010277905839</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.737299880708654</v>
+        <v>-1.727662948638491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4436507826412902</v>
+        <v>0.4432163533638112</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.115218344365744</v>
       </c>
       <c r="E20" t="n">
-        <v>1.611155855579256</v>
+        <v>1.62272961817818</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.936331450558884</v>
+        <v>-1.928048174933039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5093550628217447</v>
+        <v>0.5085900895287926</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.202287720596231</v>
       </c>
       <c r="E21" t="n">
-        <v>1.816563776889874</v>
+        <v>1.825567166263714</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.162375549559315</v>
+        <v>-2.155027241291523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5834598830525811</v>
+        <v>0.5828979582262768</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.283311812067874</v>
       </c>
       <c r="E22" t="n">
-        <v>1.952743189207446</v>
+        <v>1.960679393617044</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.330363527289692</v>
+        <v>-2.323326874807917</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6457044692044168</v>
+        <v>0.6450181968675297</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.350137557728007</v>
       </c>
       <c r="E23" t="n">
-        <v>2.155242323181901</v>
+        <v>2.16069944747545</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.481681068506373</v>
+        <v>-2.475213423936948</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7033733817706315</v>
+        <v>0.7025422996745847</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.400091310805069</v>
       </c>
       <c r="E24" t="n">
-        <v>2.266495568694554</v>
+        <v>2.26938231976302</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.723971405867309</v>
+        <v>-2.716786008578571</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7496322297265373</v>
+        <v>0.7491757641813601</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.43452053639045</v>
       </c>
       <c r="E25" t="n">
-        <v>2.417033183436631</v>
+        <v>2.416353207176229</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.884778708366311</v>
+        <v>-2.87734697708509</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7946350104236453</v>
+        <v>0.7928784050842738</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.453601267465337</v>
       </c>
       <c r="E26" t="n">
-        <v>2.569794887197105</v>
+        <v>2.566917580243368</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.056174437494304</v>
+        <v>-3.048118607631487</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8243556394720449</v>
+        <v>0.8230617957543357</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.45567856305892</v>
       </c>
       <c r="E27" t="n">
-        <v>2.624888704480872</v>
+        <v>2.619656664921668</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.181792968517509</v>
+        <v>-3.170877932920849</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8662938049399804</v>
+        <v>0.8646678431876768</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.439824856789645</v>
       </c>
       <c r="E28" t="n">
-        <v>2.639623097475368</v>
+        <v>2.634263562367339</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.272058243066739</v>
+        <v>-3.259714785117499</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8937604386066774</v>
+        <v>0.891208953611049</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.405473620702711</v>
       </c>
       <c r="E29" t="n">
-        <v>2.650117082957079</v>
+        <v>2.643677770731838</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.368971387374783</v>
+        <v>-3.353725438165865</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8947174422324282</v>
+        <v>0.8917142137489865</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.353732543980821</v>
       </c>
       <c r="E30" t="n">
-        <v>2.649969125159677</v>
+        <v>2.642042364864807</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.40909628281498</v>
+        <v>-3.391209129520519</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9037869404093628</v>
+        <v>0.9013393406757402</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.289617099988251</v>
       </c>
       <c r="E31" t="n">
-        <v>2.640293629621042</v>
+        <v>2.631419309815149</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.493558935873536</v>
+        <v>-3.472512726202624</v>
       </c>
       <c r="G31" t="n">
-        <v>0.869337957920576</v>
+        <v>0.8663221372841639</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.217106178744323</v>
       </c>
       <c r="E32" t="n">
-        <v>2.603030300943369</v>
+        <v>2.59413709290802</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.54370010199213</v>
+        <v>-3.519046240495197</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8665960166112702</v>
+        <v>0.8633834435846954</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.139733379361322</v>
       </c>
       <c r="E33" t="n">
-        <v>2.534316496202988</v>
+        <v>2.525552357735586</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.586755034026628</v>
+        <v>-3.559525290237687</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8818561319922803</v>
+        <v>0.8769483403720648</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.062411038469572</v>
       </c>
       <c r="E34" t="n">
-        <v>2.476265096990297</v>
+        <v>2.467238097329638</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.606817481746727</v>
+        <v>-3.578935307032006</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8781697792101941</v>
+        <v>0.8724718299910856</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9884577663535353</v>
       </c>
       <c r="E35" t="n">
-        <v>2.415073529630612</v>
+        <v>2.406572252356467</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.580340906107328</v>
+        <v>-3.551171970760944</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8312545652807058</v>
+        <v>0.8249254343939557</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.918366587759051</v>
       </c>
       <c r="E36" t="n">
-        <v>2.331140534006374</v>
+        <v>2.321642902628446</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.561968167913946</v>
+        <v>-3.532460818456483</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8238582494297139</v>
+        <v>0.8170978373037274</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8519511299475975</v>
       </c>
       <c r="E37" t="n">
-        <v>2.178624377228823</v>
+        <v>2.170327722440446</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.507533864642004</v>
+        <v>-3.477941518151991</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7781172537647159</v>
+        <v>0.7714465607286436</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7899546927993351</v>
       </c>
       <c r="E38" t="n">
-        <v>2.095391820113564</v>
+        <v>2.08655370274746</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.465191176259894</v>
+        <v>-3.43585224684841</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7682544499506457</v>
+        <v>0.7622448449455197</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7309404031778429</v>
       </c>
       <c r="E39" t="n">
-        <v>2.010415249811903</v>
+        <v>2.002553024301006</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.354510873707394</v>
+        <v>-3.325777941657611</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7137068173019704</v>
+        <v>0.7079915538725277</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6730903747877499</v>
       </c>
       <c r="E40" t="n">
-        <v>1.885792285882921</v>
+        <v>1.87752553745785</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.271593120416395</v>
+        <v>-3.243563774913833</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6799488292074346</v>
+        <v>0.674318562810542</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6174759828560339</v>
       </c>
       <c r="E41" t="n">
-        <v>1.774465061471566</v>
+        <v>1.767836866951769</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.213677873857697</v>
+        <v>-3.185850789812222</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6328368628877837</v>
+        <v>0.628001476147148</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5651992441856313</v>
       </c>
       <c r="E42" t="n">
-        <v>1.637610394950956</v>
+        <v>1.632847413089901</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.151841745667838</v>
+        <v>-3.124589178601638</v>
       </c>
       <c r="G42" t="n">
-        <v>0.585825633791896</v>
+        <v>0.5812688484357306</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5149577655183384</v>
       </c>
       <c r="E43" t="n">
-        <v>1.514323773255959</v>
+        <v>1.510124290240328</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.04551990206222</v>
+        <v>-3.019726450721465</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5311300433458185</v>
+        <v>0.5268975059286409</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4664551725746391</v>
       </c>
       <c r="E44" t="n">
-        <v>1.321314400563826</v>
+        <v>1.318914021403842</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.990685010923907</v>
+        <v>-2.965773797300642</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4848759174472764</v>
+        <v>0.4813721508832611</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4196980665219581</v>
       </c>
       <c r="E45" t="n">
-        <v>1.138547170293996</v>
+        <v>1.137223420212983</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.875641527367161</v>
+        <v>-2.85227285248277</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4381165314107969</v>
+        <v>0.4351447833097812</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3739735534846529</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9625198899015767</v>
+        <v>0.9636799419939752</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.714710664367136</v>
+        <v>-2.693159194558287</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3814691572543065</v>
+        <v>0.3786075904917818</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3287432515443082</v>
       </c>
       <c r="E47" t="n">
-        <v>0.887141688201608</v>
+        <v>0.8890918978928996</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.670221013903572</v>
+        <v>-2.649115778515612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3454115272235503</v>
+        <v>0.3427073623731557</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2844048004015759</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7402872782033751</v>
+        <v>0.7440192775399791</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.592940610095511</v>
+        <v>-2.572376050275718</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3530093175220687</v>
+        <v>0.3506593069739668</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2415061314418621</v>
       </c>
       <c r="E49" t="n">
-        <v>0.603231137235239</v>
+        <v>0.6085371556931437</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.535168599276852</v>
+        <v>-2.514938518520335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3088124346150667</v>
+        <v>0.3068260224839853</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2004875039151137</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4690837836032666</v>
+        <v>0.4759953015648979</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.475571513287044</v>
+        <v>-2.455716049081396</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2616626918365046</v>
+        <v>0.2603672740996741</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1622799002873249</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3547202763069226</v>
+        <v>0.3627886983227099</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.446895245925627</v>
+        <v>-2.427381343869302</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2448915180990458</v>
+        <v>0.2435126773487864</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1283740125263822</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1973545666166437</v>
+        <v>0.2063280496271789</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.451253704872509</v>
+        <v>-2.431399027676422</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2301492550089435</v>
+        <v>0.2286350486142523</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1002447564548135</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1380439521069125</v>
+        <v>0.1489487565792837</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.361007318552734</v>
+        <v>-2.342653468588807</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1929693493447</v>
+        <v>0.1918502217494552</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07759601639247422</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03491421927929143</v>
+        <v>0.04635419025290483</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.317942155393947</v>
+        <v>-2.300520911759391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1699257094088579</v>
+        <v>0.1688223220048261</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05891267493644987</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.05363222638947876</v>
+        <v>-0.0418160648458745</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.275691547130434</v>
+        <v>-2.259327257335831</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1526004809407012</v>
+        <v>0.1518024532462018</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.04357340998785252</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09379017623122321</v>
+        <v>-0.08151754914244175</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.248435832025991</v>
+        <v>-2.233387422216795</v>
       </c>
       <c r="G56" t="n">
-        <v>0.123975369200727</v>
+        <v>0.1230435498809169</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.03026887749256189</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1654930432829547</v>
+        <v>-0.1525089595513454</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.222291374421186</v>
+        <v>-2.20790720068118</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1236747315485585</v>
+        <v>0.1223887579264559</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.01670876923473373</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2422469376949402</v>
+        <v>-0.229399793626884</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.204790642821004</v>
+        <v>-2.190980986060273</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1099555808873017</v>
+        <v>0.1085389636781311</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.640951796579506e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3157441865449545</v>
+        <v>-0.3036683118463356</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.198306471050806</v>
+        <v>-2.184972955074268</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08949805436775668</v>
+        <v>0.08824670916632264</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.02165105750576102</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3570433002496419</v>
+        <v>-0.3447187305298576</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.209936898338097</v>
+        <v>-2.196408203990518</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06209280744679041</v>
+        <v>0.06126329936986494</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.0474311223374318</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3833514558430616</v>
+        <v>-0.3716092731981585</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.156147155896328</v>
+        <v>-2.144430944566926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02320351701681431</v>
+        <v>0.02290287936464588</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.07690297036067341</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4257602530282661</v>
+        <v>-0.4135978072779756</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.137240038211264</v>
+        <v>-2.126387963379456</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0588739383437305</v>
+        <v>0.05829627332621315</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1095889804392345</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4360810964066347</v>
+        <v>-0.4240729045302317</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.161496459880068</v>
+        <v>-2.151398340207364</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02730383682780261</v>
+        <v>0.02686468549295971</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1446077428064137</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4252455487756007</v>
+        <v>-0.4123559061912694</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.129244021075057</v>
+        <v>-2.120907228799088</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009677970707477505</v>
+        <v>0.009485940374678821</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1809254277741605</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4783419357944368</v>
+        <v>-0.4659701455010135</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.139157980510569</v>
+        <v>-2.130914842372317</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009755097644421238</v>
+        <v>0.009363166883217366</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2174947427030896</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4979132895486896</v>
+        <v>-0.4856595506893637</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.127078957773707</v>
+        <v>-2.119472510370022</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0225957173556718</v>
+        <v>-0.0232819896925589</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.253588414694545</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5184353508522079</v>
+        <v>-0.5074235130795883</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.159579304590324</v>
+        <v>-2.151240151285673</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02219749051798272</v>
+        <v>-0.02312930983779273</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2895134727443066</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4649391629765615</v>
+        <v>-0.4536927963548681</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.191309956056625</v>
+        <v>-2.183424907268469</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04443365864459754</v>
+        <v>-0.04504595208278351</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3256073137706539</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4274271392777235</v>
+        <v>-0.416808806285429</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.217577187152891</v>
+        <v>-2.2095528376725</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07402521812505047</v>
+        <v>-0.07461862333378083</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3616850938093272</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3476936266691159</v>
+        <v>-0.3376624028090666</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.226723025257208</v>
+        <v>-2.218828532354325</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08216132296305373</v>
+        <v>-0.08283500314697043</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3976726690763028</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2940054084606707</v>
+        <v>-0.2839002057019203</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.252471617053005</v>
+        <v>-2.24436856661655</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08802454418989879</v>
+        <v>-0.0882968494978838</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4327803204653926</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2344807273504426</v>
+        <v>-0.2241693280868018</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.305409815150151</v>
+        <v>-2.297067513807257</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07327441100419005</v>
+        <v>-0.07321932033494452</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4654662475977726</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1067333354656788</v>
+        <v>-0.09620629558241976</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.314814579399922</v>
+        <v>-2.306692640734011</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08883044198000474</v>
+        <v>-0.08863998566632736</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4938429126647423</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.03285359996918838</v>
+        <v>-0.02246349974948254</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.358802117763791</v>
+        <v>-2.350653420772818</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07721890292216957</v>
+        <v>-0.0768427123521787</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5154485578489156</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06202512462457448</v>
+        <v>0.07288743058067053</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.389774879023186</v>
+        <v>-2.381601784735832</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08270593357902377</v>
+        <v>-0.08210780631292951</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.527404503628357</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1987208152139327</v>
+        <v>0.2096539520304873</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.413226976921006</v>
+        <v>-2.405565438848074</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09405461144360172</v>
+        <v>-0.09285363485404929</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5278143440722064</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3424429271607772</v>
+        <v>0.3535617982336453</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.350022239105177</v>
+        <v>-2.343947312306516</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1033696566034592</v>
+        <v>-0.1012022322734281</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5164416850742016</v>
       </c>
       <c r="E78" t="n">
-        <v>0.525620976421266</v>
+        <v>0.5371065939493972</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.343578204822571</v>
+        <v>-2.338198994475526</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07817748056704169</v>
+        <v>-0.07643818943800443</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4944392866893304</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6458713152312747</v>
+        <v>0.6573097121857668</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.275208323260194</v>
+        <v>-2.270391824749014</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06819190326151012</v>
+        <v>-0.06548144233463034</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4637001109323465</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8014851416395459</v>
+        <v>0.8126764175919938</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.253288532976961</v>
+        <v>-2.249126039410681</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04753290229443859</v>
+        <v>-0.04492003055307945</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4267888469096595</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9233283878003108</v>
+        <v>0.9348029871945929</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.21322030222513</v>
+        <v>-2.209471775687753</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02065180374086545</v>
+        <v>-0.01777292276800649</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3859160951026099</v>
       </c>
       <c r="E82" t="n">
-        <v>1.075918523476563</v>
+        <v>1.087160168040893</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.157280449663665</v>
+        <v>-2.153391048414931</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02560051985823481</v>
+        <v>-0.02223841501513654</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3419408885857721</v>
       </c>
       <c r="E83" t="n">
-        <v>1.144718899268617</v>
+        <v>1.155801567901695</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.099092897796981</v>
+        <v>-2.095990506108898</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0003975539682886493</v>
+        <v>0.004310565503842159</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2957046002776442</v>
       </c>
       <c r="E84" t="n">
-        <v>1.280552027379502</v>
+        <v>1.292232823278674</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.016935395741571</v>
+        <v>-2.014339051200985</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0293374695325231</v>
+        <v>0.03320326049443759</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2491083236277059</v>
       </c>
       <c r="E85" t="n">
-        <v>1.290452607652483</v>
+        <v>1.30248913187307</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.859127386678206</v>
+        <v>-1.858135754631787</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04495488725406852</v>
+        <v>0.04894345170744446</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2044124745001632</v>
       </c>
       <c r="E86" t="n">
-        <v>1.333821556501681</v>
+        <v>1.346352322726356</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.763223975636477</v>
+        <v>-1.763030371284557</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06487409923412872</v>
+        <v>0.06853369369115282</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1636975556671554</v>
       </c>
       <c r="E87" t="n">
-        <v>1.341055748383179</v>
+        <v>1.355198310188066</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571702051013973</v>
+        <v>-1.572335593710297</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05885662413339619</v>
+        <v>0.06260593768033443</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1299420188735181</v>
       </c>
       <c r="E88" t="n">
-        <v>1.331809960064659</v>
+        <v>1.347740607591343</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424173173822263</v>
+        <v>-1.424989302736657</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08707406492095363</v>
+        <v>0.09117123669369931</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1048278281373881</v>
       </c>
       <c r="E89" t="n">
-        <v>1.34269115425021</v>
+        <v>1.359040490863161</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231590360312002</v>
+        <v>-1.231836694304486</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08124075005741327</v>
+        <v>0.08503413613974793</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09036836274318379</v>
       </c>
       <c r="E90" t="n">
-        <v>1.283164899120861</v>
+        <v>1.299452848988081</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.064923771633958</v>
+        <v>-1.065643098372392</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09064236626894229</v>
+        <v>0.0943460332613628</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08867419593223619</v>
       </c>
       <c r="E91" t="n">
-        <v>1.222562014912542</v>
+        <v>1.238399795311069</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.874889295081083</v>
+        <v>-0.8756314450967763</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05826479294378713</v>
+        <v>0.06204716089227269</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09916320621916427</v>
       </c>
       <c r="E92" t="n">
-        <v>1.207948821390386</v>
+        <v>1.223814934133097</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7109866839800424</v>
+        <v>-0.710816689914942</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04025329213874337</v>
+        <v>0.04425759678333231</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1179852121064261</v>
       </c>
       <c r="E93" t="n">
-        <v>1.189167625235027</v>
+        <v>1.203946090764919</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5349893099509273</v>
+        <v>-0.5349861619126847</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02360646591186729</v>
+        <v>0.02700949525211938</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1393540125300769</v>
       </c>
       <c r="E94" t="n">
-        <v>1.15700569252949</v>
+        <v>1.171581109592734</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4060488115722176</v>
+        <v>-0.4041033239382899</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002679881694174646</v>
+        <v>0.006666872128429289</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1577690273401628</v>
       </c>
       <c r="E95" t="n">
-        <v>1.127577831037652</v>
+        <v>1.140604413285536</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.270461230444255</v>
+        <v>-0.2684102835292002</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.00195875265629848</v>
+        <v>0.001587512423991969</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1693763212752405</v>
       </c>
       <c r="E96" t="n">
-        <v>1.095511913498514</v>
+        <v>1.108724230002712</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1633618213927136</v>
+        <v>-0.1605726595097688</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03687364480499034</v>
+        <v>-0.0331243312580521</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.172687246526057</v>
       </c>
       <c r="E97" t="n">
-        <v>1.043070318434139</v>
+        <v>1.055722284131154</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08126728010215493</v>
+        <v>-0.07849228439130182</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06736396920370596</v>
+        <v>-0.06375002130119958</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1678091935886114</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9827790900118378</v>
+        <v>0.9939467556774662</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06910955640922842</v>
+        <v>-0.06690592963940746</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09188246505620677</v>
+        <v>-0.08842277102758786</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1585990693759091</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9314345862750094</v>
+        <v>0.9413383145862333</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.007376526471815447</v>
+        <v>-0.005056422287018234</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1292953255504028</v>
+        <v>-0.1255932325771036</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1474052515692736</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9126518161005283</v>
+        <v>0.9202606245328958</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04279848105788658</v>
+        <v>0.04419306199935898</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1302239968319702</v>
+        <v>-0.1268760581609637</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1357665893125585</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8524314185386852</v>
+        <v>0.8585228725381189</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0673610494457838</v>
+        <v>0.06921052191331212</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1600862876012869</v>
+        <v>-0.1572042585901853</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1271451344796826</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7917340931830882</v>
+        <v>0.796109866340304</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1122379086131877</v>
+        <v>0.1132578730037906</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1513221491338846</v>
+        <v>-0.1486652048571291</v>
       </c>
     </row>
   </sheetData>
